--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="H2">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="I2">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="J2">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="N2">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="O2">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="P2">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="Q2">
-        <v>4041.745854921066</v>
+        <v>7575.629807152836</v>
       </c>
       <c r="R2">
-        <v>4041.745854921066</v>
+        <v>68180.66826437552</v>
       </c>
       <c r="S2">
-        <v>0.5675273131673758</v>
+        <v>0.5434448574924089</v>
       </c>
       <c r="T2">
-        <v>0.5675273131673758</v>
+        <v>0.5434448574924089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="H3">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="I3">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="J3">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="N3">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O3">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="P3">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="Q3">
-        <v>133.0784747048071</v>
+        <v>196.31137468371</v>
       </c>
       <c r="R3">
-        <v>133.0784747048071</v>
+        <v>1766.80237215339</v>
       </c>
       <c r="S3">
-        <v>0.01868639738881028</v>
+        <v>0.0140825792382829</v>
       </c>
       <c r="T3">
-        <v>0.01868639738881028</v>
+        <v>0.01408257923828291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="H4">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="I4">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="J4">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="N4">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="O4">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="P4">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="Q4">
-        <v>30.16311376117577</v>
+        <v>45.862576693648</v>
       </c>
       <c r="R4">
-        <v>30.16311376117577</v>
+        <v>412.763190242832</v>
       </c>
       <c r="S4">
-        <v>0.004235395179239022</v>
+        <v>0.003289994639387133</v>
       </c>
       <c r="T4">
-        <v>0.004235395179239022</v>
+        <v>0.003289994639387133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="H5">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="I5">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="J5">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="N5">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="O5">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="P5">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="Q5">
-        <v>1160.085337509435</v>
+        <v>2458.596287893746</v>
       </c>
       <c r="R5">
-        <v>1160.085337509435</v>
+        <v>22127.36659104372</v>
       </c>
       <c r="S5">
-        <v>0.1628949810983243</v>
+        <v>0.1763696937836428</v>
       </c>
       <c r="T5">
-        <v>0.1628949810983243</v>
+        <v>0.1763696937836428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="H6">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="I6">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="J6">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="N6">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="O6">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="P6">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="Q6">
-        <v>133.0784747048071</v>
+        <v>196.31137468371</v>
       </c>
       <c r="R6">
-        <v>133.0784747048071</v>
+        <v>1766.80237215339</v>
       </c>
       <c r="S6">
-        <v>0.01868639738881028</v>
+        <v>0.0140825792382829</v>
       </c>
       <c r="T6">
-        <v>0.01868639738881028</v>
+        <v>0.01408257923828291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="H7">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="I7">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="J7">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="N7">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O7">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="P7">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="Q7">
-        <v>4.381740234407653</v>
+        <v>5.087122366224998</v>
       </c>
       <c r="R7">
-        <v>4.381740234407653</v>
+        <v>45.78410129602499</v>
       </c>
       <c r="S7">
-        <v>0.0006152680924266892</v>
+        <v>0.0003649294592971411</v>
       </c>
       <c r="T7">
-        <v>0.0006152680924266892</v>
+        <v>0.0003649294592971412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="H8">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="I8">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="J8">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="N8">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="O8">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="P8">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="Q8">
-        <v>0.9931503156729886</v>
+        <v>1.188461646946666</v>
       </c>
       <c r="R8">
-        <v>0.9931503156729886</v>
+        <v>10.69615482252</v>
       </c>
       <c r="S8">
-        <v>0.0001394545699945377</v>
+        <v>8.525540275876558E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001394545699945377</v>
+        <v>8.52554027587656E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="H9">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="I9">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="J9">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="N9">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="O9">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="P9">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="Q9">
-        <v>38.19695566835238</v>
+        <v>63.71092956693499</v>
       </c>
       <c r="R9">
-        <v>38.19695566835238</v>
+        <v>573.398366102415</v>
       </c>
       <c r="S9">
-        <v>0.005363478160122157</v>
+        <v>0.00457036285042873</v>
       </c>
       <c r="T9">
-        <v>0.005363478160122157</v>
+        <v>0.004570362850428731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="H10">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="I10">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="J10">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="N10">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="O10">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="P10">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="Q10">
-        <v>30.16311376117577</v>
+        <v>45.862576693648</v>
       </c>
       <c r="R10">
-        <v>30.16311376117577</v>
+        <v>412.763190242832</v>
       </c>
       <c r="S10">
-        <v>0.004235395179239022</v>
+        <v>0.003289994639387133</v>
       </c>
       <c r="T10">
-        <v>0.004235395179239022</v>
+        <v>0.003289994639387133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,52 +1086,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="H11">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="I11">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="J11">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="N11">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O11">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="P11">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="Q11">
-        <v>0.9931503156729886</v>
+        <v>1.188461646946666</v>
       </c>
       <c r="R11">
-        <v>0.9931503156729886</v>
+        <v>10.69615482252</v>
       </c>
       <c r="S11">
-        <v>0.0001394545699945377</v>
+        <v>8.525540275876558E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001394545699945377</v>
+        <v>8.52554027587656E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,52 +1148,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="H12">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="I12">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="J12">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="N12">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="O12">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="P12">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="Q12">
-        <v>0.2251040675063424</v>
+        <v>0.2776503069084444</v>
       </c>
       <c r="R12">
-        <v>0.2251040675063424</v>
+        <v>2.498852762176</v>
       </c>
       <c r="S12">
-        <v>3.160829780016365E-05</v>
+        <v>1.991750327188857E-05</v>
       </c>
       <c r="T12">
-        <v>3.160829780016365E-05</v>
+        <v>1.991750327188857E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,52 +1210,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="H13">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="I13">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="J13">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="N13">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="O13">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="P13">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="Q13">
-        <v>8.657591858568862</v>
+        <v>14.88424905686134</v>
       </c>
       <c r="R13">
-        <v>8.657591858568862</v>
+        <v>133.958241511752</v>
       </c>
       <c r="S13">
-        <v>0.00121566768974624</v>
+        <v>0.001067735464046856</v>
       </c>
       <c r="T13">
-        <v>0.00121566768974624</v>
+        <v>0.001067735464046856</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,52 +1272,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="H14">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="I14">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="J14">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="N14">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="O14">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="P14">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="Q14">
-        <v>1160.085337509435</v>
+        <v>2458.596287893746</v>
       </c>
       <c r="R14">
-        <v>1160.085337509435</v>
+        <v>22127.36659104372</v>
       </c>
       <c r="S14">
-        <v>0.1628949810983243</v>
+        <v>0.1763696937836428</v>
       </c>
       <c r="T14">
-        <v>0.1628949810983243</v>
+        <v>0.1763696937836428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,52 +1334,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="H15">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="I15">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="J15">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="N15">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O15">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="P15">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="Q15">
-        <v>38.19695566835238</v>
+        <v>63.71092956693499</v>
       </c>
       <c r="R15">
-        <v>38.19695566835238</v>
+        <v>573.398366102415</v>
       </c>
       <c r="S15">
-        <v>0.005363478160122157</v>
+        <v>0.00457036285042873</v>
       </c>
       <c r="T15">
-        <v>0.005363478160122157</v>
+        <v>0.004570362850428731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,52 +1396,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="H16">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="I16">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="J16">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="N16">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="O16">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="P16">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="Q16">
-        <v>8.657591858568862</v>
+        <v>14.88424905686134</v>
       </c>
       <c r="R16">
-        <v>8.657591858568862</v>
+        <v>133.958241511752</v>
       </c>
       <c r="S16">
-        <v>0.00121566768974624</v>
+        <v>0.001067735464046856</v>
       </c>
       <c r="T16">
-        <v>0.00121566768974624</v>
+        <v>0.001067735464046856</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="H17">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="I17">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="J17">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="N17">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="O17">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="P17">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="Q17">
-        <v>332.9744220967752</v>
+        <v>797.9132904748811</v>
       </c>
       <c r="R17">
-        <v>332.9744220967752</v>
+        <v>7181.21961427393</v>
       </c>
       <c r="S17">
-        <v>0.04675506226992423</v>
+        <v>0.05723905278792783</v>
       </c>
       <c r="T17">
-        <v>0.04675506226992423</v>
+        <v>0.05723905278792785</v>
       </c>
     </row>
   </sheetData>
